--- a/FitnessData/dynamic15/pso/analysis_1s.xlsx
+++ b/FitnessData/dynamic15/pso/analysis_1s.xlsx
@@ -552,144 +552,144 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>291.55</v>
+        <v>287.31</v>
       </c>
       <c r="B2" t="n">
-        <v>280.65</v>
+        <v>285.4</v>
       </c>
       <c r="C2" t="n">
-        <v>289.11</v>
+        <v>268.61</v>
       </c>
       <c r="D2" t="n">
-        <v>277.59</v>
+        <v>271.36</v>
       </c>
       <c r="E2" t="n">
-        <v>305.34</v>
+        <v>276.62</v>
       </c>
       <c r="F2" t="n">
-        <v>301.33</v>
+        <v>301.77</v>
       </c>
       <c r="G2" t="n">
-        <v>286.18</v>
+        <v>273.95</v>
       </c>
       <c r="H2" t="n">
-        <v>277.56</v>
+        <v>269.56</v>
       </c>
       <c r="I2" t="n">
-        <v>285.34</v>
+        <v>290.11</v>
       </c>
       <c r="J2" t="n">
-        <v>306.97</v>
+        <v>283.39</v>
       </c>
       <c r="K2" t="n">
-        <v>282.85</v>
+        <v>278.29</v>
       </c>
       <c r="L2" t="n">
-        <v>301.62</v>
+        <v>282.93</v>
       </c>
       <c r="M2" t="n">
-        <v>282.79</v>
+        <v>282.27</v>
       </c>
       <c r="N2" t="n">
-        <v>291.25</v>
+        <v>285.84</v>
       </c>
       <c r="O2" t="n">
-        <v>285.54</v>
+        <v>278.9</v>
       </c>
       <c r="P2" t="n">
-        <v>288.87</v>
+        <v>278.68</v>
       </c>
       <c r="Q2" t="n">
-        <v>280.74</v>
+        <v>273.83</v>
       </c>
       <c r="R2" t="n">
-        <v>287.81</v>
+        <v>300.87</v>
       </c>
       <c r="S2" t="n">
-        <v>284.53</v>
+        <v>282.43</v>
       </c>
       <c r="T2" t="n">
-        <v>293.53</v>
+        <v>283.98</v>
       </c>
       <c r="U2" t="n">
-        <v>277.56</v>
+        <v>268.61</v>
       </c>
       <c r="V2" t="n">
-        <v>289.0575</v>
+        <v>281.805</v>
       </c>
       <c r="W2" t="n">
-        <v>8.776084653312392</v>
+        <v>8.93121639620211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>713.61</v>
+        <v>666.8</v>
       </c>
       <c r="B3" t="n">
-        <v>705.8200000000001</v>
+        <v>648.4</v>
       </c>
       <c r="C3" t="n">
-        <v>662.6900000000001</v>
+        <v>706.2</v>
       </c>
       <c r="D3" t="n">
-        <v>711.77</v>
+        <v>667.9</v>
       </c>
       <c r="E3" t="n">
-        <v>659.08</v>
+        <v>638.05</v>
       </c>
       <c r="F3" t="n">
-        <v>681.6799999999999</v>
+        <v>678.86</v>
       </c>
       <c r="G3" t="n">
-        <v>677.3099999999999</v>
+        <v>749.64</v>
       </c>
       <c r="H3" t="n">
-        <v>722.2</v>
+        <v>640.28</v>
       </c>
       <c r="I3" t="n">
-        <v>679.48</v>
+        <v>662.23</v>
       </c>
       <c r="J3" t="n">
-        <v>732.98</v>
+        <v>694.46</v>
       </c>
       <c r="K3" t="n">
-        <v>657.36</v>
+        <v>729.4299999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>714.24</v>
+        <v>704.72</v>
       </c>
       <c r="M3" t="n">
-        <v>697.6799999999999</v>
+        <v>666.61</v>
       </c>
       <c r="N3" t="n">
-        <v>718.17</v>
+        <v>671.28</v>
       </c>
       <c r="O3" t="n">
-        <v>724.4</v>
+        <v>663.22</v>
       </c>
       <c r="P3" t="n">
-        <v>722.36</v>
+        <v>672.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>675.08</v>
+        <v>674.6900000000001</v>
       </c>
       <c r="R3" t="n">
-        <v>697.0599999999999</v>
+        <v>688.26</v>
       </c>
       <c r="S3" t="n">
-        <v>711.52</v>
+        <v>640.21</v>
       </c>
       <c r="T3" t="n">
-        <v>697.2</v>
+        <v>654.96</v>
       </c>
       <c r="U3" t="n">
-        <v>657.36</v>
+        <v>638.05</v>
       </c>
       <c r="V3" t="n">
-        <v>698.0845</v>
+        <v>675.9350000000001</v>
       </c>
       <c r="W3" t="n">
-        <v>23.42377884813455</v>
+        <v>29.32823473432349</v>
       </c>
     </row>
   </sheetData>
